--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -32,64 +32,64 @@
     <t>rigid</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>SA</t>
@@ -116,118 +116,121 @@
     <t>perceived risks</t>
   </si>
   <si>
-    <t>Safety</t>
+    <t>Operational Efficiency</t>
   </si>
   <si>
     <t>Basic Needs</t>
   </si>
   <si>
-    <t>Risk Reduction</t>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Physical Capabilities</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Operational Capability</t>
   </si>
   <si>
     <t>Perceived Risk</t>
   </si>
   <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
+    <t>Damage not Excludable</t>
   </si>
   <si>
     <t>Durability</t>
   </si>
   <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Damage not Excludable</t>
-  </si>
-  <si>
-    <t>Specialized Tasks</t>
+    <t>Faulty Analyses</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Robot Runtime</t>
   </si>
   <si>
     <t>Error Risk</t>
   </si>
   <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Operational Capability</t>
-  </si>
-  <si>
-    <t>Physical Capabilities</t>
-  </si>
-  <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Faulty Analyses</t>
-  </si>
-  <si>
-    <t>Potential Harm to Victims</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Emphasizes the role of rescue robots in reducing risks and protecting humans from harm, including minimizing human errors during rescue operations and enhancing safety through hazard-detecting sensors.</t>
+    <t>Potential Misuse</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Delivery of Goods</t>
+  </si>
+  <si>
+    <t>Emphasizes rescue robots' ability to improve overall performance, reduce response times, and minimize risks to victims and rescuers through quicker and safer interventions, incorporating the importance of speed and operational efficiency.</t>
   </si>
   <si>
     <t>Identifies instances where the discussion centers around providing essential supplies like food, water, and medicine to victims, emphasizing robots' roles in ensuring survival until full rescue.</t>
   </si>
   <si>
-    <t>Captures the role of rescue robots in minimizing risks for both victims and rescuers, reducing exposure to dangerous conditions.</t>
+    <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
+  </si>
+  <si>
+    <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
+  </si>
+  <si>
+    <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
+  </si>
+  <si>
+    <t>Highlights the physical superiority of rescue robots, including their ability to lift heavy objects, navigate difficult terrains, and demonstrate strength beyond human capacity.</t>
+  </si>
+  <si>
+    <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
+  </si>
+  <si>
+    <t>Discusses the ability of rescue robots to function effectively in hazardous environments, showcasing their operational adaptability and reliable performance.</t>
   </si>
   <si>
     <t>Captures instances where participants express skepticism about the ability of AI, such as rescue robots, to accurately assess complex situations compared to human judgment.</t>
   </si>
   <si>
-    <t>Defines the ability of rescue robots to improve operational performance by enhancing response speed and effectiveness in emergencies.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, as well as material and production defects.</t>
-  </si>
-  <si>
-    <t>Focuses on the importance of rapid response and swift operations in rescue scenarios, highlighting the ability of robots to enhance efficiency and productivity in hazardous situations.</t>
-  </si>
-  <si>
     <t>Identifies instances where participants express concerns that damage to rescue robots may not be easily repairable or preventable. Participants highlighted that the soft material can damage quickly, raising concerns about the durability, repairability, and longevity of rescue robots in critical situations.</t>
   </si>
   <si>
-    <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
+    <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
+  </si>
+  <si>
+    <t>Identifies instances where participants express concerns about potential errors or inaccuracies in the analysis performed by rescue robots due to reliance on recognition software. Highlights the need for human oversight to prevent errors, emphasizing the importance of human judgment in critical situations.</t>
+  </si>
+  <si>
+    <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
+  </si>
+  <si>
+    <t>References environments requiring specialized equipment for breathing, such as gas masks, and how rescue robots enhance safety in such conditions.</t>
+  </si>
+  <si>
+    <t>Captures concerns and questions related to the operational duration and energy sources of rescue robots, particularly focusing on potential delays in rescue operations due to recharging requirements and energy constraints.</t>
   </si>
   <si>
     <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
   </si>
   <si>
-    <t>Describes the capability of rescue robots to access remote or hard-to-reach locations quickly, enabling faster response times and potentially saving lives.</t>
-  </si>
-  <si>
-    <t>Identifies concerns expressed by participants regarding the potential negative outcomes associated with rescue robots, such as lack of sensitivity leading to exacerbation of situations like collapses.</t>
-  </si>
-  <si>
-    <t>Describes the ability of rescue robots to function effectively in hazardous environments, demonstrating adaptability and unrestricted functionality.</t>
-  </si>
-  <si>
-    <t>Focuses on the ability of rescue robots to perform physical tasks beyond human capabilities, especially in environments where human performance is limited.</t>
-  </si>
-  <si>
-    <t>Highlights the advantage of rescue robots in accessing tight or narrow spaces, showcasing their adaptability and potential to enhance safety.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants highlight the limited scope of rescue robots, emphasizing their specialization for particular rescue tasks while noting their limited adaptability to diverse rescue scenarios.</t>
-  </si>
-  <si>
-    <t>Identifies instances where participants express concerns about potential errors or inaccuracies in the analysis performed by rescue robots due to reliance on recognition software. Highlights the need for human oversight to prevent errors, emphasizing the importance of human judgment in critical situations.</t>
-  </si>
-  <si>
-    <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions in rescue robots, such as potential risks of injury or even fatality.</t>
-  </si>
-  <si>
-    <t>Describes the physical superiority of rescue robots, including their ability to lift heavy objects and demonstrate strength beyond human capacity, particularly in challenging environments.</t>
+    <t>Identifies instances where the responsibility associated with controlling rescue robots is highlighted as having the potential for misuse.</t>
+  </si>
+  <si>
+    <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
+  </si>
+  <si>
+    <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
   </si>
 </sst>
 </file>
@@ -313,13 +316,13 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>67.0</v>
+        <v>38.0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -336,13 +339,13 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -359,13 +362,13 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -373,22 +376,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="6">
@@ -405,13 +408,13 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -419,22 +422,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,22 +445,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -465,22 +468,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="10">
@@ -488,22 +491,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -511,22 +514,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -540,16 +543,16 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="13">
@@ -557,22 +560,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
@@ -580,22 +583,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -603,22 +606,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" t="n">
         <v>13.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
@@ -635,13 +638,13 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" t="n">
         <v>13.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -649,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
         <v>13.0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -678,16 +681,16 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F18" t="n">
         <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -695,19 +698,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
@@ -724,16 +727,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" t="n">
         <v>12.0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="21">
@@ -747,16 +750,16 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
@@ -402,19 +402,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operational Efficiency</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emphasizes rescue robots' ability to improve overall performance, reduce response times, and minimize risks to victims and rescuers through quicker and safer interventions, incorporating the importance of speed and operational efficiency.</t>
+          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
         </is>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -458,19 +458,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Operational Efficiency</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
+          <t>Emphasizes rescue robots' ability to improve overall performance, reduce response times, and minimize risks to victims and rescuers through quicker and safer interventions, incorporating the importance of speed and operational efficiency.</t>
         </is>
       </c>
       <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
         <v>30</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -486,19 +486,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Physical Capabilities</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
+          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
         </is>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -514,19 +514,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Physical Capabilities</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
+          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
         </is>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -542,30 +542,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Operational Capability</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Highlights the physical superiority of rescue robots, including their ability to lift heavy objects, navigate difficult terrains, and demonstrate strength beyond human capacity.</t>
+          <t>Discusses the ability of rescue robots to function effectively in hazardous environments, showcasing their operational adaptability and reliable performance.</t>
         </is>
       </c>
       <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
         <v>23</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -575,98 +575,98 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
+          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
         </is>
       </c>
       <c r="E8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Perceived Risk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
+          <t>Captures instances where participants express skepticism about the ability of AI, such as rescue robots, to accurately assess complex situations compared to human judgment.</t>
         </is>
       </c>
       <c r="E9">
         <v>22</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operational Capability</t>
+          <t>Durability</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Discusses the ability of rescue robots to function effectively in hazardous environments, showcasing their operational adaptability and reliable performance.</t>
+          <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
         </is>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Perceived Risk</t>
+          <t>Access</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Captures instances where participants express skepticism about the ability of AI, such as rescue robots, to accurately assess complex situations compared to human judgment.</t>
+          <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
         </is>
       </c>
       <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -710,243 +710,243 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Durability</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
+          <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
         </is>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Faulty Analyses</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns about potential errors or inaccuracies in the analysis performed by rescue robots due to reliance on recognition software. Highlights the need for human oversight to prevent errors, emphasizing the importance of human judgment in critical situations.</t>
+          <t>Highlights the physical superiority of rescue robots, including their ability to lift heavy objects, navigate difficult terrains, and demonstrate strength beyond human capacity.</t>
         </is>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>Error Risk</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
+          <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
         </is>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Specialized Tasks</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>References environments requiring specialized equipment for breathing, such as gas masks, and how rescue robots enhance safety in such conditions.</t>
+          <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
         </is>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Robot Runtime</t>
+          <t>Replaceability</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Captures concerns and questions related to the operational duration and energy sources of rescue robots, particularly focusing on potential delays in rescue operations due to recharging requirements and energy constraints.</t>
+          <t>Describes the ease of substituting rescue robots during operations, highlighting that material loss is less significant than human loss, reducing concerns over the robot's safety.</t>
         </is>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Error Risk</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
+          <t>References environments requiring specialized equipment for breathing, such as gas masks, and how rescue robots enhance safety in such conditions.</t>
         </is>
       </c>
       <c r="E18">
         <v>13</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Potential Misuse</t>
+          <t>Search Capabilities</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Identifies instances where the responsibility associated with controlling rescue robots is highlighted as having the potential for misuse.</t>
+          <t>Discusses the advanced ability of rescue robots to conduct searches in challenging environments using sensor technology, allowing effective operation in dark or smoke-filled areas.</t>
         </is>
       </c>
       <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
         <v>12</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>more Possibilities</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
+          <t>Identifies instances where participants express optimism about the expanded capabilities and potential advantages of rescue robots beyond human limitations in disaster response scenarios.</t>
         </is>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Delivery of Goods</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
+          <t>Identifies instances where participants express concerns or frustrations related to the constraints or drawbacks of technical capabilities in rescue robots. This includes issues with limited senses, orientation, navigation, loss of control, and situations where autonomous systems fail to behave predictably due to software errors, as well as the inability to navigate complex environments or perform delicate tasks effectively.</t>
         </is>
       </c>
       <c r="E21">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
@@ -392,124 +392,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Basic Needs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
+          <t>Identifies instances where the discussion centers around providing essential supplies like food, water, and medicine to victims, emphasizing robots' roles in ensuring survival until full rescue.</t>
         </is>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Basic Needs</t>
+          <t>Durability</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Identifies instances where the discussion centers around providing essential supplies like food, water, and medicine to victims, emphasizing robots' roles in ensuring survival until full rescue.</t>
+          <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
         </is>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operational Efficiency</t>
+          <t>Damage not Excludable</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emphasizes rescue robots' ability to improve overall performance, reduce response times, and minimize risks to victims and rescuers through quicker and safer interventions, incorporating the importance of speed and operational efficiency.</t>
+          <t>Identifies instances where participants express concerns that damage to rescue robots may not be easily repairable or preventable. Participants highlighted that the soft material can damage quickly, raising concerns about the durability, repairability, and longevity of rescue robots in critical situations.</t>
         </is>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Physical Capabilities</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
+          <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
         </is>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -519,70 +519,70 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
+          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
         </is>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operational Capability</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Discusses the ability of rescue robots to function effectively in hazardous environments, showcasing their operational adaptability and reliable performance.</t>
+          <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
         </is>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Delivery of Goods</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
+          <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
         </is>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -616,29 +616,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Durability</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns about the fragility or susceptibility to damage of rescue robots due to their soft construction, including concerns about material and production defects.</t>
+          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
         </is>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -654,131 +654,131 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Access</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
+          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
         </is>
       </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>21</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Damage not Excludable</t>
+          <t>Adaptability</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns that damage to rescue robots may not be easily repairable or preventable. Participants highlighted that the soft material can damage quickly, raising concerns about the durability, repairability, and longevity of rescue robots in critical situations.</t>
+          <t>Captures instances where participants highlight the importance of rescue robots being able to adapt to various dangerous situations, such as extreme temperatures and physical conditions, in the context of discussing the perceived technological possibilities of rescue robots.</t>
         </is>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>Physical Capabilities</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Identifies concerns about the ability of rescue robots to accurately respond to unique or unexpected scenarios, incorporating considerations about precision and limitations in performance under exceptional circumstances.</t>
+          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
         </is>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Remote Controlled</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Highlights the physical superiority of rescue robots, including their ability to lift heavy objects, navigate difficult terrains, and demonstrate strength beyond human capacity.</t>
+          <t>Identifies instances where participants highlight the potential benefits of remote control technology in enhancing search operations and increasing involvement in rescue efforts.</t>
         </is>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error Risk</t>
+          <t>Search Improvement</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
+          <t>Identifies instances where participants discuss utilizing remote control technology to enhance search operations, emphasizing the potential for improved search outcomes through increased human involvement.</t>
         </is>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -794,44 +794,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Specialized Tasks</t>
+          <t>Autonomy</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
+          <t>Identifies instances where participants express interest or concern regarding the independence and self-governance of rescue robots in the context of potential technological advancements.</t>
         </is>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Replaceability</t>
+          <t>Specialized Tasks</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Describes the ease of substituting rescue robots during operations, highlighting that material loss is less significant than human loss, reducing concerns over the robot's safety.</t>
+          <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
         </is>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>11</v>
@@ -840,82 +840,82 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Limitations in Handling Complex or Multiple Tasks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>References environments requiring specialized equipment for breathing, such as gas masks, and how rescue robots enhance safety in such conditions.</t>
+          <t>Highlights concerns expressed in the texts about the current capabilities of rescue robots, indicating that while they excel in individual tasks, they face challenges when it comes to handling complex or multiple tasks simultaneously.</t>
         </is>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Search Capabilities</t>
+          <t>more Possibilities</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Discusses the advanced ability of rescue robots to conduct searches in challenging environments using sensor technology, allowing effective operation in dark or smoke-filled areas.</t>
+          <t>Identifies instances where participants express optimism about the expanded capabilities and potential advantages of rescue robots beyond human limitations in disaster response scenarios.</t>
         </is>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>more Possibilities</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express optimism about the expanded capabilities and potential advantages of rescue robots beyond human limitations in disaster response scenarios.</t>
+          <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions or unintended actions in rescue robots, such as malfunctions leading to accidental harm, injury, or even fatalities.</t>
         </is>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -924,29 +924,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Technical Issues</t>
+          <t>Error Risk</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express concerns or frustrations related to the constraints or drawbacks of technical capabilities in rescue robots. This includes issues with limited senses, orientation, navigation, loss of control, and situations where autonomous systems fail to behave predictably due to software errors, as well as the inability to navigate complex environments or perform delicate tasks effectively.</t>
+          <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
         </is>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>12</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -498,63 +498,63 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
+          <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
         </is>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived technological possibilities</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Addresses physical and structural considerations, such as weaknesses in soft robots or design flaws impacting resilience and performance.</t>
+          <t>Identifies instances where participants highlight the advantage of robots, particularly drones, in accessing and navigating locations that are challenging for humans to reach, including unstable areas.</t>
         </is>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -570,47 +570,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Delivery of Goods</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
+          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
         </is>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Perceived Risk</t>
+          <t>Access</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Captures instances where participants express skepticism about the ability of AI, such as rescue robots, to accurately assess complex situations compared to human judgment.</t>
+          <t>Focuses on the enhanced ability of rescue robots to access remote or hard-to-reach locations, enabling quicker response times and potentially saving lives.</t>
         </is>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -626,19 +626,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Physical Capabilities</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Emphasizes consistent performance, precise control, and the role of rescue robots in reducing risks by ensuring dependable operation in hazardous conditions.</t>
+          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
         </is>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -654,75 +654,75 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Accessibility</t>
+          <t>Delivery of Goods</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
+          <t>Highlights the potential use of rescue robots for delivering goods in hazardous environments, like war zones, emphasizing the safety benefits.</t>
         </is>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Adaptability</t>
+          <t>Accessibility</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Captures instances where participants highlight the importance of rescue robots being able to adapt to various dangerous situations, such as extreme temperatures and physical conditions, in the context of discussing the perceived technological possibilities of rescue robots.</t>
+          <t>Describes the advantage of rescue robots being able to access tight or narrow spaces that are typically inaccessible to humans, enhancing their utility and safety in rescue operations.</t>
         </is>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>perceived safety</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Physical Capabilities</t>
+          <t>Perceived Risk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Discusses the ability of rescue robots to perform physical tasks beyond human capabilities, emphasizing their potential in challenging environments.</t>
+          <t>Captures instances where participants express skepticism about the ability of AI, such as rescue robots, to accurately assess complex situations compared to human judgment.</t>
         </is>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -738,44 +738,44 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Remote Controlled</t>
+          <t>Adaptability</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Identifies instances where participants highlight the potential benefits of remote control technology in enhancing search operations and increasing involvement in rescue efforts.</t>
+          <t>Captures instances where participants highlight the importance of rescue robots being able to adapt to various dangerous situations, such as extreme temperatures and physical conditions, in the context of discussing the perceived technological possibilities of rescue robots.</t>
         </is>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Search Improvement</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Identifies instances where participants discuss utilizing remote control technology to enhance search operations, emphasizing the potential for improved search outcomes through increased human involvement.</t>
+          <t>Identifies instances where participants express concerns or frustrations related to the constraints or drawbacks of technical capabilities in rescue robots. This includes issues with limited senses, orientation, navigation, loss of control, and situations where autonomous systems fail to behave predictably due to software errors, as well as the inability to navigate complex environments or perform delicate tasks effectively.</t>
         </is>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -784,57 +784,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived safety</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Autonomy</t>
+          <t>Focus on Task</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Identifies instances where participants express interest or concern regarding the independence and self-governance of rescue robots in the context of potential technological advancements.</t>
+          <t>Highlights rescue robots' efficiency and effectiveness in completing tasks without emotional interference, enhancing performance and reliability in rescue missions.</t>
         </is>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>perceived technological possibilities</t>
+          <t>perceived technological limitations</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Specialized Tasks</t>
+          <t>Limited Flexibility</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
+          <t>Highlights the robots' inability to adapt dynamically to unforeseen or complex situations.</t>
         </is>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -850,19 +850,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Limitations in Handling Complex or Multiple Tasks</t>
+          <t>Specialized Tasks</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Highlights concerns expressed in the texts about the current capabilities of rescue robots, indicating that while they excel in individual tasks, they face challenges when it comes to handling complex or multiple tasks simultaneously.</t>
+          <t>Identifies instances where rescue robots are highlighted for their unique capabilities to perform specialized tasks beyond human capacity, such as flying, shrinking, hacking doors, and transmitting images for enhanced rescue operations.</t>
         </is>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -887,66 +887,66 @@
         </is>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>perceived risks</t>
+          <t>perceived positive Human-Robot-Interaction</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Potential Physical Harm</t>
+          <t>Collaborative Support</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions or unintended actions in rescue robots, such as malfunctions leading to accidental harm, injury, or even fatalities.</t>
+          <t>Identifies instances where rescue robots provide tangible support in rescue scenarios, including the delivery of essential resources and enhancing human capabilities through collaboration and support, rather than replacement.</t>
         </is>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>perceived technological limitations</t>
+          <t>perceived risks</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Error Risk</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Identifies instances where concerns are raised about the potential for errors or mistakes in the performance of rescue robots. Errors can stem from software, hardware, or algorithmic issues, questioning their reliability and effectiveness in comparison to human responders.</t>
+          <t>Identifies concerns related to the possibility of harm to individuals caused by technical malfunctions or unintended actions in rescue robots, such as malfunctions leading to accidental harm, injury, or even fatalities.</t>
         </is>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
+++ b/Analyses/main study - LLM/create tables, graphics G3/outputs/RR_codes_first20.xlsx
@@ -380,12 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>24</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -439,10 +439,10 @@
         </is>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>18</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>16</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>10</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>9</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
         <v>7</v>
-      </c>
-      <c r="F7">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>6</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>6</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
         <v>6</v>
-      </c>
-      <c r="F10">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>6</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
         <v>4</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
         <v>4</v>
-      </c>
-      <c r="F13">
-        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
         <v>3</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
         <v>3</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>3</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <v>3</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>3</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
         <v>2</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
